--- a/data/trans_bre/P73-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P73-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -3,95</t>
+          <t>-17,18; -4,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 5,95</t>
+          <t>-8,62; 5,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 7,67</t>
+          <t>-7,92; 6,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,62; -5,14</t>
+          <t>-22,33; -5,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 8,7</t>
+          <t>-11,39; 8,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 13,33</t>
+          <t>-12,26; 11,68</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 1,57</t>
+          <t>-13,09; 0,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 7,43</t>
+          <t>-7,12; 7,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,04; -4,33</t>
+          <t>-17,61; -5,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 2,21</t>
+          <t>-17,41; 1,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 10,79</t>
+          <t>-9,24; 10,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,23; -5,79</t>
+          <t>-22,07; -6,76</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 4,16</t>
+          <t>-10,89; 4,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 0,38</t>
+          <t>-13,52; 0,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,63; -0,53</t>
+          <t>-18,36; -1,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 5,49</t>
+          <t>-14,13; 6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 0,44</t>
+          <t>-17,46; 0,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,45; -0,73</t>
+          <t>-24,1; -1,46</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,67; -5,82</t>
+          <t>-14,83; -6,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 0,8</t>
+          <t>-8,31; 1,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,76; -8,97</t>
+          <t>-17,78; -9,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,16; -8,27</t>
+          <t>-20,37; -8,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 1,17</t>
+          <t>-11,58; 1,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,19; -12,77</t>
+          <t>-24,18; -13,28</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 15,36</t>
+          <t>1,64; 15,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 12,18</t>
+          <t>0,76; 12,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 8,99</t>
+          <t>-1,27; 9,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 27,54</t>
+          <t>2,99; 27,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 21,05</t>
+          <t>1,24; 21,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 15,89</t>
+          <t>-1,96; 17,01</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>51,71; 58,34</t>
+          <t>51,9; 58,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>52,31; 58,78</t>
+          <t>52,22; 58,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>48,71; 56,78</t>
+          <t>48,93; 56,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1166,88; 9230,81</t>
+          <t>1150,3; 9373,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1764,0; —</t>
+          <t>1730,78; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>771,23; 3210,43</t>
+          <t>763,49; 2953,52</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,17; -0,32</t>
+          <t>-5,17; -0,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,01</t>
+          <t>-2,63; 1,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,97</t>
+          <t>-5,7; -0,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -0,5</t>
+          <t>-7,77; -0,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 3,12</t>
+          <t>-3,98; 3,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,62; -1,56</t>
+          <t>-8,76; -1,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P73-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P73-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
